--- a/public/preprocessing/@R_besar.xlsx
+++ b/public/preprocessing/@R_besar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18640</v>
+        <v>31872</v>
       </c>
       <c r="C2" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,15 +497,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['bandung', 'ngariung', 'lapangan', 'bola', 'pussenif']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['bandung', 'ngariung', 'lapangan', 'bola', 'pussenif']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['bandung', 'ngariung', 'lapang', 'bola', 'pussenif']</t>
         </is>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18641</v>
+        <v>31873</v>
       </c>
       <c r="C3" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['buat', 'peminat', 'noah', 'di', 'malaysia', 'penjualan', 'album', 'terbaru', 'kami', 'sudah', 'bermula', 'hari', 'ini', 'anda', 'boleh', 'beli', 'di', 'beberapa']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['peminat', 'noah', 'malaysia', 'penjualan', 'album', 'terbaru', 'beli']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['minat', 'noah', 'malaysia', 'jual', 'album', 'baru', 'beli']</t>
         </is>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18642</v>
+        <v>31874</v>
       </c>
       <c r="C4" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,15 +579,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['untuk', 'malam', 'ini', 'semarang', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['malam', 'semarang', 'indonesia']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['malam', 'semarang', 'indonesia']</t>
         </is>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18643</v>
+        <v>31875</v>
       </c>
       <c r="C5" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,15 +620,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['rilis', 'video', 'klip', 'kupeluk', 'hatimu', 'id', 'dari', 'album', 'hanya', 'di', 'youtube', 'channel', 'noah', 'officia']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>['rilis', 'video', 'klip', 'kupeluk', 'hatimu', 'id', 'album', 'youtube', 'channel', 'noah', 'officia']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['rilis', 'video', 'klip', 'peluk', 'hati', 'id', 'album', 'youtube', 'channel', 'noah', 'officia']</t>
         </is>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18644</v>
+        <v>31876</v>
       </c>
       <c r="C6" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,15 +661,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['halo', 'semua', 'akhirnya', 'noah', 'launching', 'album', 'baru', 'dan', 'ini', 'adalah', 'video', 'clip', 'dari', 'single', 'pertama', 'wanitaku', 'selamat']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>['halo', 'noah', 'launching', 'album', 'video', 'clip', 'single', 'wanitaku', 'selamat']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['halo', 'noah', 'launching', 'album', 'video', 'clip', 'single', 'wanita', 'selamat']</t>
         </is>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18645</v>
+        <v>31877</v>
       </c>
       <c r="C7" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['lagu', 'berikutnya', 'dari', 'noah', 'kupeluk', 'hatimu', 'release', 'hari', 'ini', 'di', 'semua', 'digital', 'platform', 'sebelum', 'album', 'launch', 'nanti']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['lagu', 'noah', 'kupeluk', 'hatimu', 'release', 'digital', 'platform', 'album', 'launch']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['lagu', 'noah', 'peluk', 'hati', 'release', 'digital', 'platform', 'album', 'launch']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18646</v>
+        <v>31878</v>
       </c>
       <c r="C8" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,17 +743,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['silakan']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['silahkan']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['silah']</t>
+          <t>['silakan']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['sila']</t>
         </is>
       </c>
     </row>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18647</v>
+        <v>31879</v>
       </c>
       <c r="C9" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,15 +784,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['garut', 'menit', 'via']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['garut', 'menit', 'via']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['garut', 'menit', 'via']</t>
         </is>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18648</v>
+        <v>31880</v>
       </c>
       <c r="C10" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['restorasi', 'shogun', 'via']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['restorasi', 'shogun', 'via']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['restorasi', 'shogun', 'via']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18649</v>
+        <v>31881</v>
       </c>
       <c r="C11" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,15 +866,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['bangun', 'tidur', 'terus', 'kerja', 'via']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>['bangun', 'tidur', 'kerja', 'via']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['bangun', 'tidur', 'kerja', 'via']</t>
         </is>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18650</v>
+        <v>31882</v>
       </c>
       <c r="C12" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,15 +907,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['tana', 'toraja', 'trip', 'in', 'via']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['tana', 'toraja', 'trip', 'in', 'via']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['tana', 'toraja', 'trip', 'in', 'via']</t>
         </is>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18651</v>
+        <v>31883</v>
       </c>
       <c r="C13" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,15 +948,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['awalnya', 'saya', 'pikir', 'akan', 'menghabiskan', 'malam', 'ini', 'dengan', 'bekerja', 'tapi', 'tibagerombolan', 'berat', 'kelas', 'kakap', 'menyerbu']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>['pikir', 'menghabiskan', 'malam', 'tibagerombolan', 'berat', 'kelas', 'kakap', 'menyerbu']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['pikir', 'habis', 'malam', 'tibagerombolan', 'berat', 'kelas', 'kakap', 'serbu']</t>
         </is>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18652</v>
+        <v>31884</v>
       </c>
       <c r="C14" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,15 +989,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['im', 'live', 'on', 'my', 'insta', 'nano', 'via']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['im', 'live', 'on', 'my', 'insta', 'nano', 'via']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['im', 'live', 'on', 'my', 'insta', 'nano', 'via']</t>
         </is>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18653</v>
+        <v>31885</v>
       </c>
       <c r="C15" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,15 +1030,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['rifda', 'irfanaluthfi', 'atlet', 'senam']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['rifda', 'irfanaluthfi', 'atlet', 'senam']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['rifda', 'irfanaluthfi', 'atlet', 'senam']</t>
         </is>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>18654</v>
+        <v>31886</v>
       </c>
       <c r="C16" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,15 +1071,20 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['buka', 'bersama', 'warlook', 'via']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>['buka', 'warlook', 'via']</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['buka', 'warlook', 'via']</t>
         </is>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>18655</v>
+        <v>31887</v>
       </c>
       <c r="C17" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,15 +1112,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['gunung', 'gede', 'pangrango', 'via']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['gunung', 'gede', 'pangrango', 'via']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['gunung', 'gede', 'pangrango', 'via']</t>
         </is>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>18656</v>
+        <v>31888</v>
       </c>
       <c r="C18" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,15 +1153,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['bor', 'helm', 'bor', 'via']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['bor', 'helm', 'bor', 'via']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['bor', 'helm', 'bor', 'via']</t>
         </is>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>18657</v>
+        <v>31889</v>
       </c>
       <c r="C19" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,15 +1194,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['bromo', 'foto', 'sesi', 'greenlight', 'via']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['bromo', 'foto', 'sesi', 'greenlight', 'via']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['bromo', 'foto', 'sesi', 'greenlight', 'via']</t>
         </is>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18658</v>
+        <v>31890</v>
       </c>
       <c r="C20" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,15 +1235,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['rekamaman', 'tes', 'video', 'via']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>['rekamaman', 'tes', 'video', 'via']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['rekamaman', 'tes', 'video', 'via']</t>
         </is>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18659</v>
+        <v>31891</v>
       </c>
       <c r="C21" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,15 +1276,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['noah', 'my', 'situation', 'official', 'video', 'via']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['noah', 'my', 'situation', 'official', 'video', 'via']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['noah', 'my', 'situation', 'official', 'video', 'via']</t>
         </is>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>18660</v>
+        <v>31892</v>
       </c>
       <c r="C22" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,17 +1317,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['baru', 'senang', 'kemarin', 'hari', 'ini', 'suram', 'one', 'of', 'my', 'biggest', 'influences', 'in', 'musik', 'sok', 'sad', 'the']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['senang', 'kemarin', 'suram', 'one', 'of', 'my', 'biggest', 'influences', 'in', 'music', 'so', 'sad', 'the']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['senang', 'kemarin', 'suram', 'one', 'of', 'my', 'biggest', 'influences', 'in', 'music', 'so', 'sad', 'the']</t>
+          <t>['senang', 'kemarin', 'suram', 'one', 'of', 'my', 'biggest', 'influences', 'in', 'musik', 'sok', 'sad', 'the']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['senang', 'kemarin', 'suram', 'one', 'of', 'my', 'biggest', 'influences', 'in', 'musik', 'sok', 'sad', 'the']</t>
         </is>
       </c>
     </row>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>18661</v>
+        <v>31893</v>
       </c>
       <c r="C23" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,17 +1358,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['iya', 'ini', 'liam', 'galagher', 'the', 'show', 'is', 'tonight', 'ecovention', 'ancol']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['yes', 'its', 'liam', 'galagher', 'the', 'show', 'is', 'tonight', 'ecovention', 'ancol']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['yes', 'its', 'liam', 'galagher', 'the', 'show', 'is', 'tonight', 'ecovention', 'ancol']</t>
+          <t>['iya', 'liam', 'galagher', 'the', 'show', 'is', 'tonight', 'ecovention', 'ancol']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['iya', 'liam', 'galagher', 'the', 'show', 'is', 'tonight', 'ecovention', 'ancol']</t>
         </is>
       </c>
     </row>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>18662</v>
+        <v>31894</v>
       </c>
       <c r="C24" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,15 +1399,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['selamat', 'jalan', 'yon', 'koeswoyo']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['selamat', 'jalan', 'yon', 'koeswoyo']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['selamat', 'jalan', 'yon', 'koeswoyo']</t>
         </is>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18663</v>
+        <v>31895</v>
       </c>
       <c r="C25" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,15 +1440,20 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['indonesia', 'via']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>['indonesia', 'via']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>['indonesia', 'via']</t>
         </is>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>18664</v>
+        <v>31896</v>
       </c>
       <c r="C26" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,15 +1481,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['ariel', 'youtube', 'via']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>['ariel', 'youtube', 'via']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>['ariel', 'youtube', 'via']</t>
         </is>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18665</v>
+        <v>31897</v>
       </c>
       <c r="C27" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,15 +1522,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['had', 'really', 'great', 'time', 'last', 'night', 'semoga', 'semua', 'yang', 'datang', 'merasakan', 'hal', 'yang', 'sama', 'dan']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['had', 'really', 'great', 'time', 'last', 'night', 'semoga', 'merasakan']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['had', 'really', 'great', 'time', 'last', 'night', 'moga', 'rasa']</t>
         </is>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>18666</v>
+        <v>31898</v>
       </c>
       <c r="C28" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,17 +1563,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['dengan', 'mustikoworo', 'dalang', 'cilik']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['with', 'mustikoworo', 'dalang', 'cilik']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['with', 'mustikoworo', 'dalang', 'cilik']</t>
+          <t>['mustikoworo', 'dalang', 'cilik']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['mustikoworo', 'dalang', 'cilik']</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>18667</v>
+        <v>31899</v>
       </c>
       <c r="C29" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,15 +1604,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['konser', 'terakhir', 'tur', 'tahun', 'ini', 'next', 'kuala', 'lumpur']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['konser', 'tur', 'next', 'kuala', 'lumpur']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['konser', 'tur', 'next', 'kuala', 'lumpur']</t>
         </is>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>18668</v>
+        <v>31900</v>
       </c>
       <c r="C30" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,17 +1645,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['gede, rasa', 'untuk', 'nanti', 'malam']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['gr', 'malam']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['gr', 'malam']</t>
+          <t>['gede, rasa', 'malam']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['gede rasa', 'malam']</t>
         </is>
       </c>
     </row>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>18669</v>
+        <v>31901</v>
       </c>
       <c r="C31" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,17 +1686,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['rt', 'id', 'halo', 'sahabat', 'lagu', 'terbaru', 'kami', 'dari', 'sudah', 'bisa', 'kamu', 'dengarkan', 'di', 'id', 'ya', 'yuk', 'dengarkan']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['id', 'hallo', 'sahabat', 'lagu', 'terbaru', 'dengarkan', 'id', 'yuk', 'dengarkan']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['id', 'hallo', 'sahabat', 'lagu', 'baru', 'dengar', 'id', 'yuk', 'dengar']</t>
+          <t>['id', 'halo', 'sahabat', 'lagu', 'terbaru', 'dengarkan', 'id', 'yuk', 'dengarkan']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['id', 'halo', 'sahabat', 'lagu', 'baru', 'dengar', 'id', 'yuk', 'dengar']</t>
         </is>
       </c>
     </row>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18670</v>
+        <v>31902</v>
       </c>
       <c r="C32" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,17 +1727,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['saya', 'mengerti', 'dengan', 'para', 'penerka', 'orang', 'yang', 'suka', 'menerkanerka', 'lihat', 'suatu', 'objek', 'lalu']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['mengerti', 'penerka', 'orang', 'suka', 'menerkanerka', 'liat', 'objek']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['erti', 'terka', 'orang', 'suka', 'menerkanerka', 'liat', 'objek']</t>
+          <t>['mengerti', 'penerka', 'orang', 'suka', 'menerkanerka', 'lihat', 'objek']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['erti', 'terka', 'orang', 'suka', 'menerkanerka', 'lihat', 'objek']</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18671</v>
+        <v>31903</v>
       </c>
       <c r="C33" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,15 +1768,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['malam', 'ini']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['malam']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['malam']</t>
         </is>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18672</v>
+        <v>31904</v>
       </c>
       <c r="C34" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,15 +1809,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['ada', 'sahabat', 'noah', 'jlby', 'pas', 'ngurah', 'rai']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>['sahabat', 'noah', 'jlby', 'pas', 'ngurah', 'rai']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['sahabat', 'noah', 'jlby', 'pas', 'ngurah', 'rai']</t>
         </is>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>18673</v>
+        <v>31905</v>
       </c>
       <c r="C35" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,15 +1850,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'musik', 'nasional', 'para', 'musisi', 'seluruh', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['selamat', 'musik', 'nasional', 'musisi', 'indonesia']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['selamat', 'musik', 'nasional', 'musisi', 'indonesia']</t>
         </is>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18674</v>
+        <v>31906</v>
       </c>
       <c r="C36" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,17 +1891,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['today', 'is', 'besar', 'day', 'the', 'day', 'she', 'has', 'dreamt', 'of', 'when', 'kamu', 'will', 'see', 'her', 'stories', 'her', 'dream', 'and']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['today', 'is', 'big', 'day', 'the', 'day', 'she', 'has', 'dreamt', 'of', 'when', 'you', 'will', 'see', 'her', 'stories', 'her', 'dream', 'and']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['today', 'is', 'big', 'day', 'the', 'day', 'she', 'has', 'dreamt', 'of', 'when', 'you', 'will', 'see', 'her', 'stories', 'her', 'dream', 'and']</t>
+          <t>['today', 'is', 'day', 'the', 'day', 'she', 'has', 'dreamt', 'of', 'when', 'will', 'see', 'her', 'stories', 'her', 'dream', 'and']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['today', 'is', 'day', 'the', 'day', 'she', 'has', 'dreamt', 'of', 'when', 'will', 'see', 'her', 'stories', 'her', 'dream', 'and']</t>
         </is>
       </c>
     </row>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>18675</v>
+        <v>31907</v>
       </c>
       <c r="C37" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,17 +1932,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['tempat', 'buat', 'besok', 'gili', 'trawangan', 'islandlombok']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['venue', 'besok', 'gili', 'trawangan', 'islandlombok']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['venue', 'besok', 'gili', 'trawangan', 'islandlombok']</t>
+          <t>['besok', 'gili', 'trawangan', 'islandlombok']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['besok', 'gili', 'trawangan', 'islandlombok']</t>
         </is>
       </c>
     </row>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>18676</v>
+        <v>31908</v>
       </c>
       <c r="C38" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['mudah, mudahan', 'cepat', 'ketemu', 'kang']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['mudahmudahan', 'cepet', 'ketemu', 'kang']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['mudahmudahan', 'cepet', 'ketemu', 'kang']</t>
+          <t>['mudah, mudahan', 'cepat', 'ketemu', 'kang']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['mudah mudah', 'cepat', 'ketemu', 'kang']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18677</v>
+        <v>31909</v>
       </c>
       <c r="C39" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,15 +2014,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['selamat', 'tahun', 'baru', 'terima', 'kasih', 'banyak', 'untuk', 'tim', 'noah', 'yang', 'sudah', 'bekerja', 'secara', 'total', 'sampai', 'akhir', 'tahun']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['selamat', 'terima', 'kasih', 'tim', 'noah', 'total']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['selamat', 'terima', 'kasih', 'tim', 'noah', 'total']</t>
         </is>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>18678</v>
+        <v>31910</v>
       </c>
       <c r="C40" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['di', 'banyuwangi', 'ada', 'alfa', 'midi', 'kan']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['banyuwangi', 'alfa', 'midi']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['banyuwangi', 'alfa', 'midi']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>18679</v>
+        <v>31911</v>
       </c>
       <c r="C41" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,15 +2096,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['cari', 'di', 'website', 'resmi', 'yang', 'menyediakan', 'diskografi', 'musisi']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>['cari', 'website', 'resmi', 'menyediakan', 'diskografi', 'musisi']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['cari', 'website', 'resmi', 'sedia', 'diskografi', 'musisi']</t>
         </is>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>18680</v>
+        <v>31912</v>
       </c>
       <c r="C42" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,17 +2137,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['sini', 'coba', 'siapa', 'lagi', 'yang', 'masih', 'bertanya', 'kasih', 'list', 'lagu', 'yang', 'dikira', 'lagunya', 'noah', 'biar', 'saya', 'list', 'nanti', 'mana', 'yang', 'bukan']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['coba', 'lg', 'msh', 'nanya', 'kasih', 'list', 'lagu', 'lagunya', 'noah', 'list']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['coba', 'lg', 'msh', 'nanya', 'kasih', 'list', 'lagu', 'lagu', 'noah', 'list']</t>
+          <t>['coba', 'kasih', 'list', 'lagu', 'lagunya', 'noah', 'list']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['coba', 'kasih', 'list', 'lagu', 'lagu', 'noah', 'list']</t>
         </is>
       </c>
     </row>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18681</v>
+        <v>31913</v>
       </c>
       <c r="C43" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,17 +2178,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['kalau', 'nyarinya', 'yang', 'bajakan', 'pasti', 'akan', 'menemukan', 'lagu', 'ajaib', 'yang', 'bukan', 'punya', 'noah', 'tapi', 'dibilang', 'punya', 'noah']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['nyarinya', 'bajakan', 'paati', 'nemu', 'lagu', 'ajaib', 'noah', 'dibilang', 'noah']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['nyarinya', 'baja', 'paati', 'nemu', 'lagu', 'ajaib', 'noah', 'bilang', 'noah']</t>
+          <t>['nyarinya', 'bajakan', 'menemukan', 'lagu', 'ajaib', 'noah', 'dibilang', 'noah']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['nyarinya', 'baja', 'temu', 'lagu', 'ajaib', 'noah', 'bilang', 'noah']</t>
         </is>
       </c>
     </row>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18682</v>
+        <v>31914</v>
       </c>
       <c r="C44" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,17 +2219,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['makanya', 'kalau', 'belicari', 'lagu', 'ditempat', 'yang', 'legal', 'di', 'itunes', 'bisa', 'dilihat', 'discog', 'noah', 'lagu', 'noah', 'yang', 'tidak', 'ada', 'di, sana', 'berarti', 'bukan', 'lagu', 'noah']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 23 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['belicari', 'lagu', 'ditempat', 'legal', 'itunes', 'diliat', 'discog', 'noah', 'lagu', 'noah', 'disana', 'brti', 'lagu', 'noah']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['belicari', 'lagu', 'tempat', 'legal', 'itunes', 'liat', 'discog', 'noah', 'lagu', 'noah', 'sana', 'brti', 'lagu', 'noah']</t>
+          <t>['belicari', 'lagu', 'ditempat', 'legal', 'itunes', 'discog', 'noah', 'lagu', 'noah', 'di, sana', 'lagu', 'noah']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['belicari', 'lagu', 'tempat', 'legal', 'itunes', 'discog', 'noah', 'lagu', 'noah', 'di sana', 'lagu', 'noah']</t>
         </is>
       </c>
     </row>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18683</v>
+        <v>31915</v>
       </c>
       <c r="C45" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,15 +2260,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['noahsites', 'photo']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>['noahsites', 'photo']</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>['noahsites', 'photo']</t>
         </is>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18684</v>
+        <v>31916</v>
       </c>
       <c r="C46" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,17 +2301,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['just', 'posted', 'photo', 'saling', 'simpang', 'lima', 'gumul', 'kediri']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['just', 'posted', 'photo', 'slg', 'simpang', 'gumul', 'kediri']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['just', 'posted', 'photo', 'slg', 'simpang', 'gumul', 'diri']</t>
+          <t>['just', 'posted', 'photo', 'simpang', 'gumul', 'kediri']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['just', 'posted', 'photo', 'simpang', 'gumul', 'diri']</t>
         </is>
       </c>
     </row>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18685</v>
+        <v>31917</v>
       </c>
       <c r="C47" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,15 +2342,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['cilegon']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['cilegon']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['cilegon']</t>
         </is>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>18686</v>
+        <v>31918</v>
       </c>
       <c r="C48" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,15 +2383,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['follow', 'id', 'dan', 'apabila', 'bisa', 'ikut', 'bantu', 'kegiatan', 'mereka', 'kalau', 'sedang', 'ada', 'di', 'daerah', 'kalian']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['follow', 'id', 'bantu', 'kegiatan', 'daerah']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['follow', 'id', 'bantu', 'giat', 'daerah']</t>
         </is>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>18687</v>
+        <v>31919</v>
       </c>
       <c r="C49" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,15 +2424,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['untuk', 'sahabat', 'noah', 'indonesia', 'yang', 'senang', 'berkumpulampbakti', 'sosial', 'saya', 'menyarankan', 'melihat', 'channel', 'youtube', 'watchdoc', 'documentary', 'dan']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['sahabat', 'noah', 'indonesia', 'senang', 'berkumpulampbakti', 'sosial', 'sarankan', 'channel', 'youtube', 'watchdoc', 'documentary']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>['sahabat', 'noah', 'indonesia', 'senang', 'berkumpulampbakti', 'sosial', 'menyarankan', 'channel', 'youtube', 'watchdoc', 'documentary']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>['sahabat', 'noah', 'indonesia', 'senang', 'berkumpulampbakti', 'sosial', 'saran', 'channel', 'youtube', 'watchdoc', 'documentary']</t>
         </is>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18688</v>
+        <v>31920</v>
       </c>
       <c r="C50" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,17 +2465,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['ah', 'sudahlah', 'nyanyi', 'lagi', 'menghibur', 'diri', 'dan', 'orang', 'sekitar']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['ah', 'nyanyi', 'menghibur', 'org']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['ah', 'nyanyi', 'hibur', 'org']</t>
+          <t>['ah', 'nyanyi', 'menghibur', 'orang']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['ah', 'nyanyi', 'hibur', 'orang']</t>
         </is>
       </c>
     </row>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18689</v>
+        <v>31921</v>
       </c>
       <c r="C51" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,17 +2506,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['alunfanz', 'komisi, perlindungan, anak, indonesia', 'kan', 'bicaranya', 'di', 'ruang', 'publik', 'jadi', 'ada', 'tanggung', 'jawab', 'ke', 'publik', 'kalau', 'ke', 'muka', 'saya', 'saja', 'sih', 'tidak', 'masalah']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['alunfanz', 'kpai', 'bicaranya', 'ruang', 'publik', 'tanggung', 'publik', 'muka']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['alunfanz', 'kpai', 'bicara', 'ruang', 'publik', 'tanggung', 'publik', 'muka']</t>
+          <t>['alunfanz', 'komisi, perlindungan, anak, indonesia', 'bicaranya', 'ruang', 'publik', 'tanggung', 'publik', 'muka']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['alunfanz', 'komisi lindung anak indonesia', 'bicara', 'ruang', 'publik', 'tanggung', 'publik', 'muka']</t>
         </is>
       </c>
     </row>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18690</v>
+        <v>31922</v>
       </c>
       <c r="C52" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,17 +2547,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 22 outcomes&gt;</t>
+          <t>['alunfanz', 'bukan', 'resikonyacuman', 'takut', 'kalau', 'ada', 'yang', 'nalarnya', 'tidak', 'nyampejadi', 'bingung', 'orangnya', 'kalau', 'yang', 'bisa', 'pikir', 'sih', 'tidak, apa, apa', 'kasihan', 'yang', 'tidak', 'bisa']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['alunfanz', 'resikonyacuman', 'takut', 'nalarnya', 'nyampejadi', 'bingung', 'orgnya', 'mikir', 'gpp', 'kasian', 'bs']</t>
+          <t>&lt;FreqDist with 17 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['alunfanz', 'resikonyacuman', 'takut', 'nalar', 'nyampejadi', 'bingung', 'orgnya', 'mikir', 'gpp', 'kasi', 'bs']</t>
+          <t>['alunfanz', 'resikonyacuman', 'takut', 'nalarnya', 'nyampejadi', 'bingung', 'orangnya', 'pikir', 'tidak, apa, apa', 'kasihan']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['alunfanz', 'resikonyacuman', 'takut', 'nalar', 'nyampejadi', 'bingung', 'orang', 'pikir', 'tidak apa apa', 'kasihan']</t>
         </is>
       </c>
     </row>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>18691</v>
+        <v>31923</v>
       </c>
       <c r="C53" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,17 +2588,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['aduh', 'hampura', 'kang', 'emil', 'gara', 'saya', 'meminta', 'foto', 'bareng', 'kang', 'emil', 'naha', 'jadi', 'kang', 'emil', 'dicarekan']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['aduh', 'hampura', 'kang', 'emil', 'gara', 'sy', 'foto', 'bareng', 'kang', 'emil', 'naha', 'kang', 'emil', 'dicarekan']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['aduh', 'hampura', 'kang', 'emil', 'gara', 'sy', 'foto', 'bareng', 'kang', 'emil', 'naha', 'kang', 'emil', 'dicarekan']</t>
+          <t>['aduh', 'hampura', 'kang', 'emil', 'gara', 'foto', 'bareng', 'kang', 'emil', 'naha', 'kang', 'emil', 'dicarekan']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['aduh', 'hampura', 'kang', 'emil', 'gara', 'foto', 'bareng', 'kang', 'emil', 'naha', 'kang', 'emil', 'dicarekan']</t>
         </is>
       </c>
     </row>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18692</v>
+        <v>31924</v>
       </c>
       <c r="C54" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,17 +2629,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['oh', 'iya', 'sekadar', 'mengingatkan', 'kemarin', 'ada', 'beberapa', 'bayi', 'saya', 'lihat', 'di', 'lampu', 'merah', 'dipakai', 'sebagai', 'alat', 'meminta', 'tolong', 'dilindungi']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['owh', 'iya', 'sekedar', 'kmrn', 'bbrapa', 'bayi', 'liat', 'lampu', 'merah', 'dipakai', 'alat', 'tlg', 'dilindungi']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['owh', 'iya', 'dar', 'kmrn', 'bbrapa', 'bayi', 'liat', 'lampu', 'merah', 'pakai', 'alat', 'tlg', 'lindung']</t>
+          <t>['oh', 'iya', 'kemarin', 'bayi', 'lihat', 'lampu', 'merah', 'dipakai', 'alat', 'tolong', 'dilindungi']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['oh', 'iya', 'kemarin', 'bayi', 'lihat', 'lampu', 'merah', 'pakai', 'alat', 'tolong', 'lindung']</t>
         </is>
       </c>
     </row>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18693</v>
+        <v>31925</v>
       </c>
       <c r="C55" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,17 +2670,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['saya', 'jangan', 'datang', 'tolong', 'kasih', 'tau', 'do', 'and', 'do, not', 'nya', 'deh', 'biar', 'tidak', 'salah', 'terus', 'saya']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['tolong', 'kasih', 'do', 'and', 'dont', 'deh', 'salah']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['tolong', 'kasih', 'do', 'and', 'dont', 'deh', 'salah']</t>
+          <t>['tolong', 'kasih', 'do', 'and', 'do, not', 'deh', 'salah']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['tolong', 'kasih', 'do', 'and', 'do not', 'deh', 'salah']</t>
         </is>
       </c>
     </row>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18694</v>
+        <v>31926</v>
       </c>
       <c r="C56" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,17 +2711,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['dari', 'saya', 'jadi', 'semisalnya', 'ada', 'orang', 'tua', 'meminta', 'tolong', 'saya', 'datang', 'menjenguk', 'anaknya', 'ke, rumah', 'sakitdgn', 'harapan', 'anaknya', 'senanglebih', 'baik', 'saya', 'jangan']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['org', 'tua', 'tolong', 'menjenguk', 'anaknya', 'kerumah', 'sakitdgn', 'harapan', 'anaknya', 'senanglebih', 'sy']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['org', 'tua', 'tolong', 'jenguk', 'anak', 'rumah', 'sakitdgn', 'harap', 'anak', 'senanglebih', 'sy']</t>
+          <t>['orang', 'tua', 'tolong', 'menjenguk', 'anaknya', 'ke, rumah', 'sakitdgn', 'harapan', 'anaknya', 'senanglebih']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['orang', 'tua', 'tolong', 'jenguk', 'anak', 'ke rumah', 'sakitdgn', 'harap', 'anak', 'senanglebih']</t>
         </is>
       </c>
     </row>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>18695</v>
+        <v>31927</v>
       </c>
       <c r="C57" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2472,17 +2752,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['jadi', 'maksudnya', 'komisi, perlindungan, anak, indonesia', 'bagaimana', 'pejabat', 'tidak', 'boleh', 'foto', 'sama', 'sayasaya', 'tidak', 'boleh', 'foto', 'sama', 'pejabatkarena', 'melindungi', 'anak', 'indonesiadari']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['maksudnya', 'kpai', 'pejabat', 'foto', 'sayasaya', 'foto', 'pejabatkarena', 'melindungi', 'anak', 'indonesiadari']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['maksud', 'kpai', 'jabat', 'foto', 'sayasaya', 'foto', 'pejabatkarena', 'lindung', 'anak', 'indonesiadari']</t>
+          <t>['maksudnya', 'komisi, perlindungan, anak, indonesia', 'pejabat', 'foto', 'sayasaya', 'foto', 'pejabatkarena', 'melindungi', 'anak', 'indonesiadari']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['maksud', 'komisi lindung anak indonesia', 'jabat', 'foto', 'sayasaya', 'foto', 'pejabatkarena', 'lindung', 'anak', 'indonesiadari']</t>
         </is>
       </c>
     </row>
@@ -2491,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>18696</v>
+        <v>31928</v>
       </c>
       <c r="C58" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2508,17 +2793,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['lagi', 'di', 'kapal', 'induk', 'kota', 'bandung', 'igent', 'laporgoid']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['lg', 'kapal', 'induk', 'kota', 'bandung', 'igent', 'laporgoid']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['lg', 'kapal', 'induk', 'kota', 'bandung', 'igent', 'laporgoid']</t>
+          <t>['kapal', 'induk', 'kota', 'bandung', 'igent', 'laporgoid']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['kapal', 'induk', 'kota', 'bandung', 'igent', 'laporgoid']</t>
         </is>
       </c>
     </row>
@@ -2527,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18697</v>
+        <v>31929</v>
       </c>
       <c r="C59" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2544,15 +2834,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['just', 'posted', 'video']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>['just', 'posted', 'video']</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>['just', 'posted', 'video']</t>
         </is>
@@ -2563,10 +2858,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18698</v>
+        <v>31930</v>
       </c>
       <c r="C60" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2580,15 +2875,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['just', 'posted', 'photo']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['just', 'posted', 'photo']</t>
         </is>
@@ -2599,10 +2899,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>18699</v>
+        <v>31931</v>
       </c>
       <c r="C61" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
@@ -2612,15 +2912,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2631,10 +2936,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18700</v>
+        <v>31932</v>
       </c>
       <c r="C62" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -2644,15 +2949,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2663,10 +2973,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>18701</v>
+        <v>31933</v>
       </c>
       <c r="C63" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -2676,15 +2986,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2695,10 +3010,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18702</v>
+        <v>31934</v>
       </c>
       <c r="C64" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -2708,15 +3023,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2727,10 +3047,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18703</v>
+        <v>31935</v>
       </c>
       <c r="C65" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2744,15 +3064,20 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['siap']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2763,10 +3088,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>18704</v>
+        <v>31936</v>
       </c>
       <c r="C66" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -2776,15 +3101,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2795,10 +3125,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>18705</v>
+        <v>31937</v>
       </c>
       <c r="C67" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2812,17 +3142,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['menonton', 'mkd']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['watching', 'mkd']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['watching', 'mkd']</t>
+          <t>['menonton', 'mkd']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['tonton', 'mkd']</t>
         </is>
       </c>
     </row>
@@ -2831,10 +3166,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18706</v>
+        <v>31938</v>
       </c>
       <c r="C68" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2848,15 +3183,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['sudah', 'ada', 'di', 'itunes', 'satu', 'feat', 'noah', 'nidji', 'geisha', 'amp', 'dmasiv', 'by', 'iwan', 'fals']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>['itunes', 'feat', 'noah', 'nidji', 'geisha', 'dmasiv', 'by', 'iwan', 'fals']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>['itunes', 'feat', 'noah', 'nidji', 'geisha', 'dmasiv', 'by', 'iwan', 'fals']</t>
         </is>
@@ -2867,10 +3207,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18707</v>
+        <v>31939</v>
       </c>
       <c r="C69" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2884,17 +3224,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['selamat', 'yonder', 'musik', 'dan', 'terima, kasih', 'buat', 'teman', 'musisi', 'di', 'malaysia', 'nice', 'collaboration']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['congrats', 'yonder', 'music', 'terimakasih', 'teman', 'musisi', 'malaysia', 'nice', 'collaboration']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['congrats', 'yonder', 'music', 'terimakasih', 'teman', 'musisi', 'malaysia', 'nice', 'collaboration']</t>
+          <t>['selamat', 'yonder', 'musik', 'terima, kasih', 'teman', 'musisi', 'malaysia', 'nice', 'collaboration']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['selamat', 'yonder', 'musik', 'terima kasih', 'teman', 'musisi', 'malaysia', 'nice', 'collaboration']</t>
         </is>
       </c>
     </row>
@@ -2903,10 +3248,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18708</v>
+        <v>31940</v>
       </c>
       <c r="C70" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2920,15 +3265,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['kuala', 'lumpur', 'akhirnya', 'kesini', 'lagi']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['kuala', 'lumpur', 'kesini']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['kuala', 'lumpur', 'kesini']</t>
         </is>
@@ -2939,10 +3289,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>18709</v>
+        <v>31941</v>
       </c>
       <c r="C71" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2956,15 +3306,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['mungkin', 'ini', 'teh', 'kang', 'saya', 'ikutan', 'ngaduk', 'semen', 'kalau', 'mungkin']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['teh', 'kang', 'ikutan', 'ngaduk', 'semen']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['teh', 'kang', 'ikut', 'ngaduk', 'semen']</t>
         </is>
@@ -2975,10 +3330,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18710</v>
+        <v>31942</v>
       </c>
       <c r="C72" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2992,15 +3347,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['iya', 'nanti', 'malam']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['iya', 'malam']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['iya', 'malam']</t>
         </is>
@@ -3011,10 +3371,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>18711</v>
+        <v>31943</v>
       </c>
       <c r="C73" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3028,15 +3388,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['amin']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['amin']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['amin']</t>
         </is>
@@ -3047,10 +3412,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>18712</v>
+        <v>31944</v>
       </c>
       <c r="C74" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3064,15 +3429,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['coming', 'soon']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>['coming', 'soon']</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>['coming', 'soon']</t>
         </is>
@@ -3083,10 +3453,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>18713</v>
+        <v>31945</v>
       </c>
       <c r="C75" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3100,15 +3470,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['kecelakaan', 'lalu', 'lintas']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>['kecelakaan', 'lintas']</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>['celaka', 'lintas']</t>
         </is>
@@ -3119,10 +3494,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>18714</v>
+        <v>31946</v>
       </c>
       <c r="C76" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3136,15 +3511,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['turut', 'kehilangan', 'atas', 'meninggalnya', 'ketua', 'sahabat', 'cirebon', 'adam', 'kami', 'berdoa', 'untuk', 'keteguhan', 'hati', 'keluarga', 'dan', 'semua', 'sahabat', 'yang', 'ditinggalkan']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['kehilangan', 'meninggalnya', 'ketua', 'sahabat', 'cirebon', 'adam', 'berdoa', 'keteguhan', 'hati', 'keluarga', 'sahabat', 'ditinggalkan']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['hilang', 'tinggal', 'ketua', 'sahabat', 'cirebon', 'adam', 'doa', 'teguh', 'hati', 'keluarga', 'sahabat', 'tinggal']</t>
         </is>
@@ -3155,10 +3535,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>18715</v>
+        <v>31947</v>
       </c>
       <c r="C77" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3172,17 +3552,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['lagi', 'di', 'kantornya', 'baru', 'nya', 'twitter', 'newyork']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['lg', 'kantornya', 'twitter', 'newyork']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['lg', 'kantor', 'twitter', 'newyork']</t>
+          <t>['kantornya', 'twitter', 'newyork']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['kantor', 'twitter', 'newyork']</t>
         </is>
       </c>
     </row>
@@ -3191,10 +3576,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>18716</v>
+        <v>31948</v>
       </c>
       <c r="C78" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3208,17 +3593,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['dan', 'terima, kasih', 'untuk', 'nya', 'terima, kasih', 'komunitas', 'sahabat', 'yang', 'banyak', 'banget', 'maaf', 'susah', 'balaskan', 'satusatu', 'karena', 'saya', 'harus', 'brkt', 'kerja']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['terimakasih', 'trmksh', 'komunitas', 'sahabat', 'bgt', 'maaf', 'susah', 'balesin', 'satusatu', 'musti', 'brkt', 'kerja']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['terimakasih', 'trmksh', 'komunitas', 'sahabat', 'bgt', 'maaf', 'susah', 'balesin', 'satusatu', 'musti', 'brkt', 'kerja']</t>
+          <t>['terima, kasih', 'terima, kasih', 'komunitas', 'sahabat', 'banget', 'maaf', 'susah', 'balaskan', 'satusatu', 'brkt', 'kerja']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'terima kasih', 'komunitas', 'sahabat', 'banget', 'maaf', 'susah', 'balas', 'satusatu', 'brkt', 'kerja']</t>
         </is>
       </c>
     </row>
@@ -3227,10 +3617,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>18717</v>
+        <v>31949</v>
       </c>
       <c r="C79" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3244,17 +3634,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'kamu', 'om', 'adib']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['thank', 'you', 'om', 'adib']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['thank', 'you', 'om', 'adib']</t>
+          <t>['terima, kasih', 'om', 'adib']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'om', 'adib']</t>
         </is>
       </c>
     </row>
@@ -3263,10 +3658,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>18718</v>
+        <v>31950</v>
       </c>
       <c r="C80" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3280,17 +3675,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['pagi', 'sudah', 'diselametin', 'ulang, tahun', 'terima, kasih', 'doanya', 'oke', 'hari', 'ini', 'saya', 'kerja', 'vokal', 'recording', 'dengan', 'iwan', 'fals', 'wish', 'me', 'luck']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>['pagi', 'udh', 'diselametin', 'ulangtahun', 'terimakasih', 'doanya', 'ok', 'kerja', 'vocal', 'recording', 'with', 'iwan', 'fals', 'wish', 'me', 'luck']</t>
-        </is>
-      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['pagi', 'udh', 'diselametin', 'ulangtahun', 'terimakasih', 'doa', 'ok', 'kerja', 'vocal', 'recording', 'with', 'iwan', 'fals', 'wish', 'me', 'luck']</t>
+          <t>['pagi', 'diselametin', 'ulang, tahun', 'terima, kasih', 'doanya', 'oke', 'kerja', 'vokal', 'recording', 'iwan', 'fals', 'wish', 'me', 'luck']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['pagi', 'diselametin', 'ulang tahun', 'terima kasih', 'doa', 'oke', 'kerja', 'vokal', 'recording', 'iwan', 'fals', 'wish', 'me', 'luck']</t>
         </is>
       </c>
     </row>
@@ -3299,10 +3699,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18719</v>
+        <v>31951</v>
       </c>
       <c r="C81" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3316,15 +3716,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['video', 'clip', 'suara', 'pikiranku']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['video', 'clip', 'suara', 'pikiranku']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['video', 'clip', 'suara', 'pikir']</t>
         </is>
@@ -3335,10 +3740,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18720</v>
+        <v>31952</v>
       </c>
       <c r="C82" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
@@ -3348,15 +3753,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3367,10 +3777,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18721</v>
+        <v>31953</v>
       </c>
       <c r="C83" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3384,15 +3794,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['gotong', 'royong']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>['gotong', 'royong']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['gotong', 'royong']</t>
         </is>
@@ -3403,10 +3818,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>18722</v>
+        <v>31954</v>
       </c>
       <c r="C84" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3420,17 +3835,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['album', 'noah', 'taman', 'langit', 'dan', 'lainnya', 'ditunda', 'dulu', 'karena', 'kita', 'sedang', 'ada', 'proyek', 'kolaborasi', 'dengan', 'bang', 'iwan', 'fals', 'september']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>['album', 'noah', 'taman', 'langit', 'ditunda', 'project', 'kolaborasi', 'bang', 'iwan', 'fals', 'september']</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['album', 'noah', 'taman', 'langit', 'tunda', 'project', 'kolaborasi', 'bang', 'iwan', 'fals', 'september']</t>
+          <t>['album', 'noah', 'taman', 'langit', 'ditunda', 'proyek', 'kolaborasi', 'bang', 'iwan', 'fals', 'september']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['album', 'noah', 'taman', 'langit', 'tunda', 'proyek', 'kolaborasi', 'bang', 'iwan', 'fals', 'september']</t>
         </is>
       </c>
     </row>
@@ -3439,10 +3859,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>18723</v>
+        <v>31955</v>
       </c>
       <c r="C85" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3456,15 +3876,20 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['semoga', 'cepat', 'sampai', 'rumah', 'semua', 'nya']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>['semoga', 'cepat', 'rumah']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>['moga', 'cepat', 'rumah']</t>
         </is>
@@ -3475,10 +3900,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>18724</v>
+        <v>31956</v>
       </c>
       <c r="C86" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3492,17 +3917,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['lain', 'kali', 'kalau', 'seramai', 'itu', 'harus', 'ada', 'koordinator', 'nya', 'ya']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['kali', 'seramai', 'kordinator']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['kali', 'serama', 'kordinator']</t>
+          <t>['kali', 'seramai', 'koordinator']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['kali', 'serama', 'koordinator']</t>
         </is>
       </c>
     </row>
@@ -3511,10 +3941,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>18725</v>
+        <v>31957</v>
       </c>
       <c r="C87" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3528,17 +3958,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['sahabat', 'yang', 'didekat', 'jalan', 'keluar', 'mobil', 'lain', 'kali', 'harus', 'lebih', 'tenang', 'cara', 'kitasahabat', 'tidak', 'seperti', 'itukita', 'teratur', 'jadi', 'semua', 'bisa', 'foto']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['sahabat', 'didekat', 'jalan', 'mobil', 'kali', 'tenang', 'kitasahabat', 'itukita', 'teratur', 'bs', 'foto']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['sahabat', 'dekat', 'jalan', 'mobil', 'kali', 'tenang', 'kitasahabat', 'itukita', 'atur', 'bs', 'foto']</t>
+          <t>['sahabat', 'didekat', 'jalan', 'mobil', 'kali', 'tenang', 'kitasahabat', 'itukita', 'teratur', 'foto']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['sahabat', 'dekat', 'jalan', 'mobil', 'kali', 'tenang', 'kitasahabat', 'itukita', 'atur', 'foto']</t>
         </is>
       </c>
     </row>
@@ -3547,10 +3982,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>18726</v>
+        <v>31958</v>
       </c>
       <c r="C88" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3564,17 +3999,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'sahabat', 'noah', 'tadi', 'yang', 'sudah', 'datang']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['terimakasih', 'sahabat', 'noah']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['terimakasih', 'sahabat', 'noah']</t>
+          <t>['terima, kasih', 'sahabat', 'noah']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'sahabat', 'noah']</t>
         </is>
       </c>
     </row>
@@ -3583,10 +4023,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>18727</v>
+        <v>31959</v>
       </c>
       <c r="C89" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3600,17 +4040,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'kamu', 'singapura']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['thank', 'you', 'singapore']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['thank', 'you', 'singapore']</t>
+          <t>['terima, kasih', 'singapura']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'singapura']</t>
         </is>
       </c>
     </row>
@@ -3619,10 +4064,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18728</v>
+        <v>31960</v>
       </c>
       <c r="C90" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3636,17 +4081,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['rt', 'bandung', 'malam', 'ini', 'digelar', 'cfn', 'di', 'jalan', 'asia', 'afrika', 'braga', 'pendek', 'amp', 'cikapundung', 'yuk', 'ramaikan', 'dengan', 'jaga', 'fasilitas', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['bdg', 'malam', 'digelar', 'cfn', 'jl', 'asia', 'afrika', 'braga', 'pendek', 'cikapundung', 'yuk', 'ramaikan', 'jaga', 'fasilitas', 'http']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['bdg', 'malam', 'gelar', 'cfn', 'jl', 'asia', 'afrika', 'braga', 'pendek', 'cikapundung', 'yuk', 'ramai', 'jaga', 'fasilitas', 'http']</t>
+          <t>['bandung', 'malam', 'digelar', 'cfn', 'jalan', 'asia', 'afrika', 'braga', 'pendek', 'cikapundung', 'yuk', 'ramaikan', 'jaga', 'fasilitas', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['bandung', 'malam', 'gelar', 'cfn', 'jalan', 'asia', 'afrika', 'braga', 'pendek', 'cikapundung', 'yuk', 'ramai', 'jaga', 'fasilitas', 'hypertext transfer protocol']</t>
         </is>
       </c>
     </row>
@@ -3655,10 +4105,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>18729</v>
+        <v>31961</v>
       </c>
       <c r="C91" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3672,15 +4122,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['happy', 'birthday', 'id']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>['happy', 'birthday', 'id']</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>['happy', 'birthday', 'id']</t>
         </is>
@@ -3691,10 +4146,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>18730</v>
+        <v>31962</v>
       </c>
       <c r="C92" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3708,15 +4163,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['mungkin', 'nanti']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3727,10 +4187,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18731</v>
+        <v>31963</v>
       </c>
       <c r="C93" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3744,17 +4204,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['cpnk', 'haha', 'ternyata']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['cpnk', 'hahhaa']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['cpnk', 'hahhaa']</t>
+          <t>['cpnk', 'haha']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['cpnk', 'haha']</t>
         </is>
       </c>
     </row>
@@ -3763,10 +4228,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18732</v>
+        <v>31964</v>
       </c>
       <c r="C94" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3780,15 +4245,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['nature', 'doesnt', 'need', 'people', 'people', 'need', 'nature']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>['nature', 'doesnt', 'need', 'people', 'people', 'need', 'nature']</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>['nature', 'doesnt', 'need', 'people', 'people', 'need', 'nature']</t>
         </is>
@@ -3799,10 +4269,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18733</v>
+        <v>31965</v>
       </c>
       <c r="C95" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3816,15 +4286,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['rt', 'jadi', 'percontohan', 'sakip', 'siapkan', 'bendera', 'hitam']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['percontohan', 'sakip', 'siapkan', 'bendera', 'hitam']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['contoh', 'sakip', 'siap', 'bendera', 'hitam']</t>
         </is>
@@ -3835,10 +4310,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>18734</v>
+        <v>31966</v>
       </c>
       <c r="C96" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3852,15 +4327,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['today', 'dimasjayunaydkk']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['today', 'dimasjayunaydkk']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['today', 'dimasjayunaydkk']</t>
         </is>
@@ -3871,10 +4351,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>18735</v>
+        <v>31967</v>
       </c>
       <c r="C97" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3888,15 +4368,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['rt', 'rakyat', 'showbiz', 'ariel', 'noah', 'ngabuburit', 'main', 'slopitch']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>['rakyat', 'showbiz', 'ariel', 'noah', 'ngabuburit', 'main', 'slopitch']</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>['rakyat', 'showbiz', 'ariel', 'noah', 'ngabuburit', 'main', 'slopitch']</t>
         </is>
@@ -3907,10 +4392,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18736</v>
+        <v>31968</v>
       </c>
       <c r="C98" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3924,17 +4409,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'tadi', 'sudah', 'dijelasin', 'soal', 'periscope']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['thank', 'udh', 'dijelasin', 'periscope']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['thank', 'udh', 'dijelasin', 'periscope']</t>
+          <t>['terima, kasih', 'dijelasin', 'periscope']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'dijelasin', 'periscope']</t>
         </is>
       </c>
     </row>
@@ -3943,10 +4433,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>18737</v>
+        <v>31969</v>
       </c>
       <c r="C99" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3960,15 +4450,20 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['just', 'posted', 'photo']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>['just', 'posted', 'photo']</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>['just', 'posted', 'photo']</t>
         </is>
@@ -3979,10 +4474,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>18738</v>
+        <v>31970</v>
       </c>
       <c r="C100" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
@@ -3992,15 +4487,20 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4011,10 +4511,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>18739</v>
+        <v>31971</v>
       </c>
       <c r="C101" t="n">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4028,17 +4528,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['to', 'yoyakarta']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['to', 'jogja']</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['to', 'jogja']</t>
+          <t>['to', 'yoyakarta']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['to', 'yoyakarta']</t>
         </is>
       </c>
     </row>
